--- a/APublish/Config/Excel/A_公共枚举.xlsx
+++ b/APublish/Config/Excel/A_公共枚举.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBEFC1F-7164-4983-B7C1-292BF5C8F439}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CE4770-D0C9-470E-96EC-11A147D80A13}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="805">
   <si>
     <t>ID</t>
   </si>
@@ -1723,10 +1723,6 @@
   </si>
   <si>
     <t>武神积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武神塔资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3800,74 +3796,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3887,7 +3815,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4202,8 +4130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DG185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AM67" sqref="AM67"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4430,37 +4358,37 @@
       <c r="CK1" s="33"/>
       <c r="CL1" s="34"/>
       <c r="CM1" s="32" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="CN1" s="33"/>
       <c r="CO1" s="34"/>
       <c r="CP1" s="32" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="CQ1" s="33"/>
       <c r="CR1" s="34"/>
       <c r="CS1" s="32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="CT1" s="33"/>
       <c r="CU1" s="34"/>
       <c r="CV1" s="32" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="CW1" s="33"/>
       <c r="CX1" s="34"/>
       <c r="CY1" s="32" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="CZ1" s="33"/>
       <c r="DA1" s="34"/>
       <c r="DB1" s="32" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="DC1" s="33"/>
       <c r="DD1" s="34"/>
       <c r="DE1" s="32" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="DF1" s="33"/>
       <c r="DG1" s="34"/>
@@ -4617,37 +4545,37 @@
       <c r="CK2" s="33"/>
       <c r="CL2" s="34"/>
       <c r="CM2" s="32" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="CN2" s="33"/>
       <c r="CO2" s="34"/>
       <c r="CP2" s="32" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="CQ2" s="33"/>
       <c r="CR2" s="34"/>
       <c r="CS2" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="CT2" s="33"/>
       <c r="CU2" s="34"/>
       <c r="CV2" s="32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="CW2" s="33"/>
       <c r="CX2" s="34"/>
       <c r="CY2" s="32" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="CZ2" s="33"/>
       <c r="DA2" s="34"/>
       <c r="DB2" s="32" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="DC2" s="33"/>
       <c r="DD2" s="34"/>
       <c r="DE2" s="32" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="DF2" s="33"/>
       <c r="DG2" s="34"/>
@@ -5022,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="S4" s="1">
         <v>1</v>
@@ -5199,43 +5127,43 @@
         <v>0</v>
       </c>
       <c r="CN4" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="CP4" s="1">
         <v>0</v>
       </c>
       <c r="CQ4" s="22" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="CS4" s="1">
         <v>101</v>
       </c>
       <c r="CT4" s="23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="CV4" s="23">
         <v>10101</v>
       </c>
       <c r="CW4" s="23" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="CY4" s="1">
         <v>0</v>
       </c>
       <c r="CZ4" s="23" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="DB4" s="1">
         <v>104</v>
       </c>
       <c r="DC4" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="DE4" s="1">
         <v>100</v>
       </c>
       <c r="DF4" s="7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="5" spans="1:111" x14ac:dyDescent="0.3">
@@ -5444,43 +5372,43 @@
         <v>1</v>
       </c>
       <c r="CQ5" s="22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="CR5" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="CS5" s="7">
         <v>102</v>
       </c>
       <c r="CT5" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="CU5" s="25"/>
       <c r="CV5" s="8">
         <v>10102</v>
       </c>
       <c r="CW5" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="CX5" s="25"/>
       <c r="CY5" s="23">
         <v>1</v>
       </c>
       <c r="CZ5" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="DA5" s="25"/>
       <c r="DB5" s="1">
         <v>105</v>
       </c>
       <c r="DC5" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="DE5" s="1">
         <v>200</v>
       </c>
       <c r="DF5" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="6" spans="1:111" x14ac:dyDescent="0.3">
@@ -5680,43 +5608,43 @@
         <v>2</v>
       </c>
       <c r="CQ6" s="22" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="CR6" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="CS6" s="1">
         <v>103</v>
       </c>
       <c r="CT6" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="CU6" s="8"/>
       <c r="CV6" s="8">
         <v>10103</v>
       </c>
       <c r="CW6" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="CX6" s="8"/>
       <c r="CY6" s="8">
         <v>2</v>
       </c>
       <c r="CZ6" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="DA6" s="8"/>
       <c r="DB6" s="1">
         <v>107</v>
       </c>
       <c r="DC6" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="DE6" s="1">
         <v>300</v>
       </c>
       <c r="DF6" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="7" spans="1:111" x14ac:dyDescent="0.3">
@@ -5865,29 +5793,29 @@
         <v>3</v>
       </c>
       <c r="CN7" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="CP7" s="1">
         <v>3</v>
       </c>
       <c r="CQ7" s="22" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="CR7" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="CS7" s="7">
         <v>104</v>
       </c>
       <c r="CT7" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="CU7" s="8"/>
       <c r="CV7" s="8">
         <v>10201</v>
       </c>
       <c r="CW7" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="CX7" s="8"/>
       <c r="CY7" s="8"/>
@@ -5897,13 +5825,13 @@
         <v>108</v>
       </c>
       <c r="DC7" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="DE7" s="1">
         <v>400</v>
       </c>
       <c r="DF7" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="8" spans="1:111" x14ac:dyDescent="0.3">
@@ -5911,10 +5839,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G8" s="1">
         <v>1106</v>
@@ -5941,16 +5869,16 @@
         <v>5</v>
       </c>
       <c r="T8" s="21" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="U8" s="21" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="V8" s="21">
         <v>33</v>
       </c>
       <c r="W8" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="X8" s="21" t="s">
         <v>53</v>
@@ -6035,23 +5963,23 @@
         <v>4</v>
       </c>
       <c r="CQ8" s="22" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="CR8" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="CS8" s="1">
         <v>201</v>
       </c>
       <c r="CT8" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="CU8" s="8"/>
       <c r="CV8" s="8">
         <v>10202</v>
       </c>
       <c r="CW8" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="CX8" s="8"/>
       <c r="CY8" s="8"/>
@@ -6061,13 +5989,13 @@
         <v>110</v>
       </c>
       <c r="DC8" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="DE8" s="1">
         <v>500</v>
       </c>
       <c r="DF8" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="9" spans="1:111" x14ac:dyDescent="0.3">
@@ -6075,7 +6003,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G9" s="1">
         <v>1107</v>
@@ -6168,23 +6096,23 @@
         <v>5</v>
       </c>
       <c r="CQ9" s="22" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="CR9" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="CS9" s="1">
         <v>301</v>
       </c>
       <c r="CT9" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="CU9" s="8"/>
       <c r="CV9" s="8">
         <v>10203</v>
       </c>
       <c r="CW9" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="CX9" s="8"/>
       <c r="CY9" s="8"/>
@@ -6259,14 +6187,14 @@
         <v>401</v>
       </c>
       <c r="CT10" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="CU10" s="8"/>
       <c r="CV10" s="8">
         <v>10301</v>
       </c>
       <c r="CW10" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="CX10" s="8"/>
       <c r="CY10" s="8"/>
@@ -6299,10 +6227,10 @@
         <v>8</v>
       </c>
       <c r="T11" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="U11" s="21" t="s">
         <v>471</v>
-      </c>
-      <c r="U11" s="21" t="s">
-        <v>472</v>
       </c>
       <c r="V11" s="21">
         <v>1</v>
@@ -6353,14 +6281,14 @@
         <v>501</v>
       </c>
       <c r="CT11" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="CU11" s="8"/>
       <c r="CV11" s="8">
         <v>10302</v>
       </c>
       <c r="CW11" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CX11" s="8"/>
       <c r="CY11" s="8"/>
@@ -6372,7 +6300,7 @@
         <v>1211</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P12" s="1">
         <v>113</v>
@@ -6384,10 +6312,10 @@
         <v>9</v>
       </c>
       <c r="T12" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="U12" s="21" t="s">
         <v>480</v>
-      </c>
-      <c r="U12" s="21" t="s">
-        <v>481</v>
       </c>
       <c r="V12" s="21">
         <v>11</v>
@@ -6402,7 +6330,7 @@
         <v>108</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AD12" s="1" t="s">
         <v>351</v>
@@ -6445,7 +6373,7 @@
         <v>10303</v>
       </c>
       <c r="CW12" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="CX12" s="8"/>
       <c r="CY12" s="8"/>
@@ -6457,16 +6385,16 @@
         <v>300</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>766</v>
       </c>
       <c r="G13" s="1">
         <v>1221</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="P13" s="1">
         <v>114</v>
@@ -6478,10 +6406,10 @@
         <v>10</v>
       </c>
       <c r="T13" s="21" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="V13" s="21">
         <v>13</v>
@@ -6514,7 +6442,7 @@
         <v>11</v>
       </c>
       <c r="CB13" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="CG13" s="21">
         <v>1204</v>
@@ -6531,7 +6459,7 @@
         <v>10401</v>
       </c>
       <c r="CW13" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="CX13" s="8"/>
       <c r="CY13" s="8"/>
@@ -6555,10 +6483,10 @@
         <v>11</v>
       </c>
       <c r="T14" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="U14" s="21" t="s">
         <v>545</v>
-      </c>
-      <c r="U14" s="21" t="s">
-        <v>546</v>
       </c>
       <c r="V14" s="21">
         <v>15</v>
@@ -6605,7 +6533,7 @@
         <v>10402</v>
       </c>
       <c r="CW14" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="CX14" s="8"/>
       <c r="CY14" s="8"/>
@@ -6617,22 +6545,22 @@
         <v>1212</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="P15" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>448</v>
+        <v>714</v>
       </c>
       <c r="S15" s="21">
         <v>12</v>
       </c>
       <c r="T15" s="21" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U15" s="21" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
@@ -6676,7 +6604,7 @@
         <v>10403</v>
       </c>
       <c r="CW15" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="CX15" s="8"/>
       <c r="CY15" s="8"/>
@@ -6688,10 +6616,10 @@
         <v>1222</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="P16" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>715</v>
@@ -6700,10 +6628,10 @@
         <v>13</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="U16" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="V16" s="21">
         <v>21</v>
@@ -6742,7 +6670,7 @@
         <v>1211</v>
       </c>
       <c r="CH16" s="21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="CI16" s="21" t="s">
         <v>268</v>
@@ -6753,7 +6681,7 @@
         <v>50101</v>
       </c>
       <c r="CW16" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="CX16" s="8"/>
       <c r="CY16" s="8"/>
@@ -6768,7 +6696,7 @@
         <v>22</v>
       </c>
       <c r="P17" s="1">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>716</v>
@@ -6777,10 +6705,10 @@
         <v>14</v>
       </c>
       <c r="T17" s="21" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="U17" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="V17" s="21">
         <v>22</v>
@@ -6795,7 +6723,7 @@
         <v>81</v>
       </c>
       <c r="AI17" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AK17" s="1">
         <v>111</v>
@@ -6816,7 +6744,7 @@
         <v>1212</v>
       </c>
       <c r="CH17" s="21" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="CI17" s="21" t="s">
         <v>268</v>
@@ -6827,7 +6755,7 @@
         <v>50102</v>
       </c>
       <c r="CW17" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="CX17" s="8"/>
       <c r="CY17" s="8"/>
@@ -6839,22 +6767,16 @@
         <v>1213</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="P18" s="1">
-        <v>200</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>717</v>
+        <v>539</v>
       </c>
       <c r="S18" s="1">
         <v>15</v>
       </c>
       <c r="T18" s="21" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="U18" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="V18" s="21">
         <v>23</v>
@@ -6869,7 +6791,7 @@
         <v>140</v>
       </c>
       <c r="AC18" s="21" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AD18" s="21" t="s">
         <v>268</v>
@@ -6878,7 +6800,7 @@
         <v>82</v>
       </c>
       <c r="AI18" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AK18" s="1">
         <v>112</v>
@@ -6899,7 +6821,7 @@
         <v>1214</v>
       </c>
       <c r="CH18" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="CI18" s="21" t="s">
         <v>268</v>
@@ -6910,7 +6832,7 @@
         <v>50103</v>
       </c>
       <c r="CW18" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="CX18" s="8"/>
       <c r="CY18" s="8"/>
@@ -6922,22 +6844,22 @@
         <v>1223</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S19" s="21">
         <v>16</v>
       </c>
       <c r="T19" s="21" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="U19" s="21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V19" s="21">
         <v>24</v>
       </c>
       <c r="W19" s="21" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="X19" s="21" t="s">
         <v>278</v>
@@ -6946,7 +6868,7 @@
         <v>141</v>
       </c>
       <c r="AC19" s="21" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AD19" s="21" t="s">
         <v>268</v>
@@ -6955,7 +6877,7 @@
         <v>83</v>
       </c>
       <c r="AI19" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AK19" s="1">
         <v>113</v>
@@ -6964,7 +6886,7 @@
         <v>112</v>
       </c>
       <c r="AM19" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="BI19" s="1">
         <v>116</v>
@@ -6976,7 +6898,7 @@
         <v>1215</v>
       </c>
       <c r="CH19" s="21" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="CI19" s="21" t="s">
         <v>268</v>
@@ -6987,7 +6909,7 @@
         <v>50104</v>
       </c>
       <c r="CW19" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="CX19" s="8"/>
       <c r="CY19" s="8"/>
@@ -7005,16 +6927,16 @@
         <v>17</v>
       </c>
       <c r="T20" s="21" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="U20" s="21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AB20" s="21">
         <v>142</v>
       </c>
       <c r="AC20" s="21" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AD20" s="21" t="s">
         <v>268</v>
@@ -7023,7 +6945,7 @@
         <v>84</v>
       </c>
       <c r="AI20" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AK20" s="1">
         <v>114</v>
@@ -7057,16 +6979,16 @@
         <v>1215</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S21" s="21">
         <v>18</v>
       </c>
       <c r="T21" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="U21" s="21" t="s">
         <v>577</v>
-      </c>
-      <c r="U21" s="21" t="s">
-        <v>578</v>
       </c>
       <c r="V21" s="21">
         <v>8</v>
@@ -7081,7 +7003,7 @@
         <v>143</v>
       </c>
       <c r="AC21" s="21" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AD21" s="21" t="s">
         <v>268</v>
@@ -7100,7 +7022,7 @@
         <v>1302</v>
       </c>
       <c r="CH21" s="21" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="CI21" s="21" t="s">
         <v>269</v>
@@ -7111,7 +7033,7 @@
         <v>70101</v>
       </c>
       <c r="CW21" s="24" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="CX21" s="8"/>
       <c r="CY21" s="8"/>
@@ -7123,22 +7045,22 @@
         <v>1225</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S22" s="1">
         <v>19</v>
       </c>
       <c r="T22" s="21" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="U22" s="21" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="V22" s="21">
         <v>6</v>
       </c>
       <c r="W22" s="21" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="X22" s="21" t="s">
         <v>53</v>
@@ -7147,7 +7069,7 @@
         <v>144</v>
       </c>
       <c r="AC22" s="10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AD22" s="10" t="s">
         <v>268</v>
@@ -7156,7 +7078,7 @@
         <v>1304</v>
       </c>
       <c r="CH22" s="21" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="CI22" s="21" t="s">
         <v>269</v>
@@ -7167,7 +7089,7 @@
         <v>70102</v>
       </c>
       <c r="CW22" s="24" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="CX22" s="8"/>
       <c r="CY22" s="8"/>
@@ -7179,10 +7101,10 @@
         <v>20</v>
       </c>
       <c r="T23" s="21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="U23" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="V23" s="21">
         <v>9</v>
@@ -7197,7 +7119,7 @@
         <v>145</v>
       </c>
       <c r="AC23" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AD23" s="10" t="s">
         <v>268</v>
@@ -7221,7 +7143,7 @@
         <v>1305</v>
       </c>
       <c r="CH23" s="21" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="CI23" s="21" t="s">
         <v>269</v>
@@ -7232,7 +7154,7 @@
         <v>70103</v>
       </c>
       <c r="CW23" s="24" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="CX23" s="8"/>
       <c r="CY23" s="8"/>
@@ -7250,10 +7172,10 @@
         <v>21</v>
       </c>
       <c r="T24" s="21" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="U24" s="21" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
@@ -7262,10 +7184,10 @@
         <v>146</v>
       </c>
       <c r="AC24" s="10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AD24" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AK24" s="1">
         <v>211</v>
@@ -7291,7 +7213,7 @@
         <v>70104</v>
       </c>
       <c r="CW24" s="24" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="CX24" s="8"/>
       <c r="CY24" s="8"/>
@@ -7309,16 +7231,16 @@
         <v>22</v>
       </c>
       <c r="T25" s="21" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U25" s="21" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="V25" s="21">
         <v>5</v>
       </c>
       <c r="W25" s="21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="X25" s="21" t="s">
         <v>53</v>
@@ -7353,7 +7275,7 @@
         <v>70105</v>
       </c>
       <c r="CW25" s="24" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="CX25" s="8"/>
       <c r="CY25" s="8"/>
@@ -7371,10 +7293,10 @@
         <v>23</v>
       </c>
       <c r="T26" s="21" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="U26" s="21" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="V26" s="21">
         <v>30</v>
@@ -7389,7 +7311,7 @@
         <v>150</v>
       </c>
       <c r="AC26" s="21" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AD26" s="21" t="s">
         <v>268</v>
@@ -7424,7 +7346,7 @@
         <v>80101</v>
       </c>
       <c r="CW26" s="24" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="CX26" s="8"/>
       <c r="CY26" s="8"/>
@@ -7442,10 +7364,10 @@
         <v>24</v>
       </c>
       <c r="T27" s="21" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="U27" s="21" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="V27" s="21">
         <v>31</v>
@@ -7460,7 +7382,7 @@
         <v>151</v>
       </c>
       <c r="AC27" s="21" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AD27" s="21" t="s">
         <v>268</v>
@@ -7484,7 +7406,7 @@
         <v>2013</v>
       </c>
       <c r="CH27" s="21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="CI27" s="21" t="s">
         <v>268</v>
@@ -7495,7 +7417,7 @@
         <v>80102</v>
       </c>
       <c r="CW27" s="24" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="CX27" s="8"/>
       <c r="CY27" s="8"/>
@@ -7513,10 +7435,10 @@
         <v>25</v>
       </c>
       <c r="T28" s="21" t="s">
+        <v>657</v>
+      </c>
+      <c r="U28" s="21" t="s">
         <v>658</v>
-      </c>
-      <c r="U28" s="21" t="s">
-        <v>659</v>
       </c>
       <c r="V28" s="21">
         <v>32</v>
@@ -7531,7 +7453,7 @@
         <v>152</v>
       </c>
       <c r="AC28" s="21" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AD28" s="21" t="s">
         <v>268</v>
@@ -7560,7 +7482,7 @@
         <v>80103</v>
       </c>
       <c r="CW28" s="24" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="CX28" s="8"/>
       <c r="CY28" s="8"/>
@@ -7572,7 +7494,7 @@
         <v>26</v>
       </c>
       <c r="T29" s="21" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="U29" s="21" t="s">
         <v>154</v>
@@ -7581,7 +7503,7 @@
         <v>36</v>
       </c>
       <c r="W29" s="27" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="X29" s="21" t="s">
         <v>53</v>
@@ -7590,7 +7512,7 @@
         <v>153</v>
       </c>
       <c r="AC29" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AD29" s="21" t="s">
         <v>268</v>
@@ -7616,7 +7538,7 @@
         <v>80104</v>
       </c>
       <c r="CW29" s="24" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="CX29" s="8"/>
       <c r="CY29" s="8"/>
@@ -7634,16 +7556,16 @@
         <v>27</v>
       </c>
       <c r="T30" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="U30" s="9" t="s">
         <v>655</v>
-      </c>
-      <c r="U30" s="9" t="s">
-        <v>656</v>
       </c>
       <c r="AB30" s="10">
         <v>154</v>
       </c>
       <c r="AC30" s="10" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AD30" s="10" t="s">
         <v>268</v>
@@ -7672,7 +7594,7 @@
         <v>90101</v>
       </c>
       <c r="CW30" s="24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="CX30" s="8"/>
       <c r="CY30" s="8"/>
@@ -7690,16 +7612,16 @@
         <v>28</v>
       </c>
       <c r="T31" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="U31" s="1" t="s">
         <v>741</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>742</v>
       </c>
       <c r="V31" s="21">
         <v>35</v>
       </c>
       <c r="W31" s="21" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="X31" s="21" t="s">
         <v>53</v>
@@ -7711,7 +7633,7 @@
         <v>155</v>
       </c>
       <c r="AC31" s="10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AD31" s="10" t="s">
         <v>268</v>
@@ -7748,7 +7670,7 @@
         <v>90102</v>
       </c>
       <c r="CW31" s="24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="CX31" s="8"/>
       <c r="CY31" s="8"/>
@@ -7760,16 +7682,16 @@
         <v>1304</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="S32" s="1">
         <v>29</v>
       </c>
       <c r="T32" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="U32" s="1" t="s">
         <v>783</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>784</v>
       </c>
       <c r="V32" s="21">
         <v>61</v>
@@ -7787,10 +7709,10 @@
         <v>156</v>
       </c>
       <c r="AC32" s="10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AD32" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AE32" s="8"/>
       <c r="AF32" s="8"/>
@@ -7871,7 +7793,7 @@
         <v>41</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="X34" s="21" t="s">
         <v>53</v>
@@ -7883,7 +7805,7 @@
         <v>160</v>
       </c>
       <c r="AC34" s="21" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AD34" s="21" t="s">
         <v>268</v>
@@ -7925,7 +7847,7 @@
         <v>42</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="X35" s="21" t="s">
         <v>53</v>
@@ -7936,7 +7858,7 @@
         <v>161</v>
       </c>
       <c r="AC35" s="21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AD35" s="21" t="s">
         <v>268</v>
@@ -7961,7 +7883,7 @@
         <v>2042</v>
       </c>
       <c r="CH35" s="21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="CI35" s="21" t="s">
         <v>268</v>
@@ -7978,10 +7900,10 @@
         <v>150</v>
       </c>
       <c r="T36" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="U36" s="21" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="Z36" s="8"/>
       <c r="AA36" s="8"/>
@@ -7989,7 +7911,7 @@
         <v>162</v>
       </c>
       <c r="AC36" s="21" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AD36" s="21" t="s">
         <v>268</v>
@@ -8008,7 +7930,7 @@
         <v>2043</v>
       </c>
       <c r="CH36" s="21" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="CI36" s="21" t="s">
         <v>268</v>
@@ -8036,7 +7958,7 @@
         <v>163</v>
       </c>
       <c r="AC37" s="21" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AD37" s="21" t="s">
         <v>268</v>
@@ -8052,7 +7974,7 @@
         <v>444</v>
       </c>
       <c r="AM37" s="21" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="BI37" s="1">
         <v>215</v>
@@ -8064,7 +7986,7 @@
         <v>2044</v>
       </c>
       <c r="CH37" s="21" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="CI37" s="21" t="s">
         <v>268</v>
@@ -8090,10 +8012,10 @@
         <v>91</v>
       </c>
       <c r="W38" s="29" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="X38" s="29" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="Z38" s="8"/>
       <c r="AA38" s="8"/>
@@ -8101,7 +8023,7 @@
         <v>164</v>
       </c>
       <c r="AC38" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AD38" s="10" t="s">
         <v>268</v>
@@ -8114,10 +8036,10 @@
         <v>520</v>
       </c>
       <c r="AL38" s="27" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AM38" s="21" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="BI38" s="1">
         <v>216</v>
@@ -8143,16 +8065,16 @@
         <v>92</v>
       </c>
       <c r="W39" s="29" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="X39" s="29" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AB39" s="10">
         <v>165</v>
       </c>
       <c r="AC39" s="10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AD39" s="10" t="s">
         <v>268</v>
@@ -8161,10 +8083,10 @@
         <v>503</v>
       </c>
       <c r="AL39" s="27" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AM39" s="21" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="BI39" s="1">
         <v>217</v>
@@ -8176,7 +8098,7 @@
         <v>2050</v>
       </c>
       <c r="CH39" s="21" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="CI39" s="21" t="s">
         <v>268</v>
@@ -8202,28 +8124,28 @@
         <v>93</v>
       </c>
       <c r="W40" s="28" t="s">
+        <v>761</v>
+      </c>
+      <c r="X40" s="28" t="s">
         <v>762</v>
-      </c>
-      <c r="X40" s="28" t="s">
-        <v>763</v>
       </c>
       <c r="AB40" s="10">
         <v>166</v>
       </c>
       <c r="AC40" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AD40" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AK40" s="21">
         <v>534</v>
       </c>
       <c r="AL40" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AM40" s="21" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="CG40" s="21"/>
       <c r="CH40" s="21"/>
@@ -8249,10 +8171,10 @@
         <v>508</v>
       </c>
       <c r="AL41" s="27" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AM41" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="CG41" s="21">
         <v>3001</v>
@@ -8284,10 +8206,10 @@
         <v>100</v>
       </c>
       <c r="W42" s="29" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="X42" s="29" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="Y42" s="8"/>
       <c r="AB42" s="1">
@@ -8303,10 +8225,10 @@
         <v>506</v>
       </c>
       <c r="AL42" s="27" t="s">
+        <v>712</v>
+      </c>
+      <c r="AM42" s="21" t="s">
         <v>713</v>
-      </c>
-      <c r="AM42" s="21" t="s">
-        <v>714</v>
       </c>
       <c r="CG42" s="21"/>
       <c r="CH42" s="21"/>
@@ -8332,10 +8254,10 @@
         <v>101</v>
       </c>
       <c r="W43" s="29" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="X43" s="29" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="Y43" s="8"/>
       <c r="AB43" s="1">
@@ -8351,10 +8273,10 @@
         <v>509</v>
       </c>
       <c r="AL43" s="27" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AM43" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="BI43" s="1">
         <v>301</v>
@@ -8366,7 +8288,7 @@
         <v>4001</v>
       </c>
       <c r="CH43" s="21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="CI43" s="21" t="s">
         <v>269</v>
@@ -8392,20 +8314,20 @@
         <v>102</v>
       </c>
       <c r="W44" s="29" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="X44" s="29" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="Y44" s="8"/>
       <c r="AK44" s="21">
         <v>505</v>
       </c>
       <c r="AL44" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AM44" s="21" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="BI44" s="1">
         <v>302</v>
@@ -8417,7 +8339,7 @@
         <v>4002</v>
       </c>
       <c r="CH44" s="21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="CI44" s="21" t="s">
         <v>269</v>
@@ -8437,10 +8359,10 @@
         <v>103</v>
       </c>
       <c r="W45" s="29" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="X45" s="29" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="Y45" s="8"/>
       <c r="AB45" s="1">
@@ -8456,10 +8378,10 @@
         <v>530</v>
       </c>
       <c r="AL45" s="27" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AM45" s="21" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="BI45" s="1">
         <v>303</v>
@@ -8471,7 +8393,7 @@
         <v>4003</v>
       </c>
       <c r="CH45" s="21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="CI45" s="21" t="s">
         <v>269</v>
@@ -8485,7 +8407,7 @@
         <v>248</v>
       </c>
       <c r="U46" s="21" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="V46" s="21"/>
       <c r="W46" s="30"/>
@@ -8504,10 +8426,10 @@
         <v>531</v>
       </c>
       <c r="AL46" s="27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AM46" s="21" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="BI46" s="1">
         <v>304</v>
@@ -8539,10 +8461,10 @@
         <v>200</v>
       </c>
       <c r="W47" s="29" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="X47" s="29" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AB47" s="1">
         <v>203</v>
@@ -8557,10 +8479,10 @@
         <v>532</v>
       </c>
       <c r="AL47" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AM47" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="BI47" s="1">
         <v>305</v>
@@ -8572,7 +8494,7 @@
         <v>4101</v>
       </c>
       <c r="CH47" s="21" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="CI47" s="21" t="s">
         <v>350</v>
@@ -8592,16 +8514,16 @@
         <v>383</v>
       </c>
       <c r="U48" s="21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="V48" s="29">
         <v>300</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AB48" s="1">
         <v>204</v>
@@ -8622,7 +8544,7 @@
         <v>4102</v>
       </c>
       <c r="CH48" s="21" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="CI48" s="21" t="s">
         <v>350</v>
@@ -8639,7 +8561,7 @@
         <v>163</v>
       </c>
       <c r="T49" s="21" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="U49" s="21" t="s">
         <v>154</v>
@@ -8663,7 +8585,7 @@
         <v>4103</v>
       </c>
       <c r="CH49" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="CI49" s="21" t="s">
         <v>350</v>
@@ -8704,7 +8626,7 @@
         <v>4104</v>
       </c>
       <c r="CH50" s="21" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="CI50" s="21" t="s">
         <v>351</v>
@@ -8739,10 +8661,10 @@
         <v>561</v>
       </c>
       <c r="AL51" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AM51" s="21" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="BI51" s="1">
         <v>309</v>
@@ -8777,10 +8699,10 @@
         <v>541</v>
       </c>
       <c r="AL52" s="27" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AM52" s="21" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="BI52" s="1">
         <v>310</v>
@@ -8792,7 +8714,7 @@
         <v>4201</v>
       </c>
       <c r="CH52" s="21" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="CI52" s="21" t="s">
         <v>350</v>
@@ -8812,10 +8734,10 @@
         <v>542</v>
       </c>
       <c r="AL53" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AM53" s="21" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="BI53" s="1">
         <v>311</v>
@@ -8827,7 +8749,7 @@
         <v>4202</v>
       </c>
       <c r="CH53" s="21" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="CI53" s="21" t="s">
         <v>350</v>
@@ -8856,10 +8778,10 @@
         <v>591</v>
       </c>
       <c r="AL54" s="29" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AM54" s="21" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="BI54" s="1">
         <v>312</v>
@@ -8871,7 +8793,7 @@
         <v>4203</v>
       </c>
       <c r="CH54" s="21" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="CI54" s="21" t="s">
         <v>350</v>
@@ -8900,10 +8822,10 @@
         <v>592</v>
       </c>
       <c r="AL55" s="29" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AM55" s="21" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="BI55" s="1">
         <v>313</v>
@@ -8915,7 +8837,7 @@
         <v>4204</v>
       </c>
       <c r="CH55" s="21" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="CI55" s="21" t="s">
         <v>351</v>
@@ -8944,10 +8866,10 @@
         <v>593</v>
       </c>
       <c r="AL56" s="28" t="s">
+        <v>761</v>
+      </c>
+      <c r="AM56" s="28" t="s">
         <v>762</v>
-      </c>
-      <c r="AM56" s="28" t="s">
-        <v>763</v>
       </c>
       <c r="BI56" s="1">
         <v>314</v>
@@ -8982,10 +8904,10 @@
         <v>600</v>
       </c>
       <c r="AL57" s="29" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AM57" s="21" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="BI57" s="1">
         <v>315</v>
@@ -8997,7 +8919,7 @@
         <v>4301</v>
       </c>
       <c r="CH57" s="21" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="CI57" s="21" t="s">
         <v>350</v>
@@ -9017,10 +8939,10 @@
         <v>601</v>
       </c>
       <c r="AL58" s="29" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AM58" s="21" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="BI58" s="1">
         <v>316</v>
@@ -9032,7 +8954,7 @@
         <v>4302</v>
       </c>
       <c r="CH58" s="21" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="CI58" s="21" t="s">
         <v>350</v>
@@ -9061,10 +8983,10 @@
         <v>602</v>
       </c>
       <c r="AL59" s="29" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AM59" s="21" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="BI59" s="1">
         <v>317</v>
@@ -9076,7 +8998,7 @@
         <v>4303</v>
       </c>
       <c r="CH59" s="21" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="CI59" s="21" t="s">
         <v>350</v>
@@ -9087,7 +9009,7 @@
         <v>174</v>
       </c>
       <c r="T60" s="21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U60" s="21" t="s">
         <v>154</v>
@@ -9105,10 +9027,10 @@
         <v>603</v>
       </c>
       <c r="AL60" s="29" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AM60" s="21" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="BI60" s="1">
         <v>318</v>
@@ -9120,7 +9042,7 @@
         <v>4304</v>
       </c>
       <c r="CH60" s="21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="CI60" s="21" t="s">
         <v>351</v>
@@ -9131,7 +9053,7 @@
         <v>175</v>
       </c>
       <c r="T61" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U61" s="21" t="s">
         <v>154</v>
@@ -9160,7 +9082,7 @@
         <v>176</v>
       </c>
       <c r="T62" s="21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="U62" s="21" t="s">
         <v>154</v>
@@ -9169,7 +9091,7 @@
         <v>414</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AD62" s="1" t="s">
         <v>328</v>
@@ -9178,10 +9100,10 @@
         <v>700</v>
       </c>
       <c r="AL62" s="29" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AM62" s="21" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="BI62" s="1">
         <v>320</v>
@@ -9193,7 +9115,7 @@
         <v>5101</v>
       </c>
       <c r="CH62" s="21" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="CI62" s="21" t="s">
         <v>268</v>
@@ -9204,7 +9126,7 @@
         <v>177</v>
       </c>
       <c r="T63" s="21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="U63" s="21" t="s">
         <v>154</v>
@@ -9228,7 +9150,7 @@
         <v>5102</v>
       </c>
       <c r="CH63" s="21" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="CI63" s="21" t="s">
         <v>268</v>
@@ -9239,10 +9161,10 @@
         <v>178</v>
       </c>
       <c r="T64" s="21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="U64" s="21" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AB64" s="1">
         <v>422</v>
@@ -9257,10 +9179,10 @@
         <v>801</v>
       </c>
       <c r="AL64" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AM64" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="BI64" s="1">
         <v>322</v>
@@ -9272,7 +9194,7 @@
         <v>5103</v>
       </c>
       <c r="CH64" s="21" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="CI64" s="21" t="s">
         <v>268</v>
@@ -9283,7 +9205,7 @@
         <v>179</v>
       </c>
       <c r="T65" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="U65" s="21" t="s">
         <v>154</v>
@@ -9301,16 +9223,16 @@
         <v>802</v>
       </c>
       <c r="AL65" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AM65" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="CG65" s="21">
         <v>5104</v>
       </c>
       <c r="CH65" s="21" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="CI65" s="21" t="s">
         <v>268</v>
@@ -9321,16 +9243,16 @@
         <v>180</v>
       </c>
       <c r="T66" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="U66" s="21" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AB66" s="1">
         <v>424</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AD66" s="1" t="s">
         <v>328</v>
@@ -9339,7 +9261,7 @@
         <v>5105</v>
       </c>
       <c r="CH66" s="10" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="CI66" s="10" t="s">
         <v>268</v>
@@ -9359,16 +9281,16 @@
         <v>901</v>
       </c>
       <c r="AL67" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AM67" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="CG67" s="10">
         <v>5106</v>
       </c>
       <c r="CH67" s="10" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="CI67" s="10" t="s">
         <v>268</v>
@@ -9379,7 +9301,7 @@
         <v>182</v>
       </c>
       <c r="T68" s="21" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="U68" s="21" t="s">
         <v>154</v>
@@ -9388,7 +9310,7 @@
         <v>501</v>
       </c>
       <c r="AC68" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AD68" s="8" t="s">
         <v>328</v>
@@ -9397,19 +9319,19 @@
         <v>902</v>
       </c>
       <c r="AL68" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AM68" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="CG68" s="10">
         <v>5107</v>
       </c>
       <c r="CH68" s="10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="CI68" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="69" spans="19:87" x14ac:dyDescent="0.3">
@@ -9417,16 +9339,16 @@
         <v>183</v>
       </c>
       <c r="T69" s="21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="U69" s="21" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AB69" s="1">
         <v>502</v>
       </c>
       <c r="AC69" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AD69" s="8" t="s">
         <v>328</v>
@@ -9437,10 +9359,10 @@
         <v>184</v>
       </c>
       <c r="T70" s="21" t="s">
+        <v>636</v>
+      </c>
+      <c r="U70" s="21" t="s">
         <v>637</v>
-      </c>
-      <c r="U70" s="21" t="s">
-        <v>638</v>
       </c>
       <c r="AB70" s="1">
         <v>503</v>
@@ -9455,7 +9377,7 @@
         <v>5201</v>
       </c>
       <c r="CH70" s="21" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="CI70" s="21" t="s">
         <v>268</v>
@@ -9466,10 +9388,10 @@
         <v>185</v>
       </c>
       <c r="T71" s="21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="U71" s="21" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AB71" s="1">
         <v>504</v>
@@ -9484,7 +9406,7 @@
         <v>5202</v>
       </c>
       <c r="CH71" s="21" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="CI71" s="21" t="s">
         <v>268</v>
@@ -9495,7 +9417,7 @@
         <v>186</v>
       </c>
       <c r="T72" s="21" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="U72" s="21" t="s">
         <v>154</v>
@@ -9504,7 +9426,7 @@
         <v>505</v>
       </c>
       <c r="AC72" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AD72" s="8" t="s">
         <v>328</v>
@@ -9513,7 +9435,7 @@
         <v>5203</v>
       </c>
       <c r="CH72" s="21" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="CI72" s="21" t="s">
         <v>268</v>
@@ -9524,7 +9446,7 @@
         <v>187</v>
       </c>
       <c r="T73" s="21" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="U73" s="21" t="s">
         <v>154</v>
@@ -9533,7 +9455,7 @@
         <v>506</v>
       </c>
       <c r="AC73" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AD73" s="8" t="s">
         <v>328</v>
@@ -9542,7 +9464,7 @@
         <v>5204</v>
       </c>
       <c r="CH73" s="21" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="CI73" s="21" t="s">
         <v>268</v>
@@ -9553,7 +9475,7 @@
         <v>188</v>
       </c>
       <c r="T74" s="21" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="U74" s="21" t="s">
         <v>154</v>
@@ -9562,7 +9484,7 @@
         <v>5205</v>
       </c>
       <c r="CH74" s="10" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="CI74" s="10" t="s">
         <v>268</v>
@@ -9573,7 +9495,7 @@
         <v>189</v>
       </c>
       <c r="T75" s="21" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="U75" s="21" t="s">
         <v>154</v>
@@ -9582,7 +9504,7 @@
         <v>601</v>
       </c>
       <c r="AC75" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AD75" s="8" t="s">
         <v>379</v>
@@ -9591,7 +9513,7 @@
         <v>5206</v>
       </c>
       <c r="CH75" s="10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="CI75" s="10" t="s">
         <v>268</v>
@@ -9602,7 +9524,7 @@
         <v>190</v>
       </c>
       <c r="T76" s="21" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="U76" s="21" t="s">
         <v>154</v>
@@ -9611,10 +9533,10 @@
         <v>5207</v>
       </c>
       <c r="CH76" s="10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="CI76" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="77" spans="19:87" x14ac:dyDescent="0.3">
@@ -9622,7 +9544,7 @@
         <v>191</v>
       </c>
       <c r="T77" s="21" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="U77" s="21" t="s">
         <v>154</v>
@@ -9642,7 +9564,7 @@
         <v>192</v>
       </c>
       <c r="T78" s="21" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="U78" s="21" t="s">
         <v>154</v>
@@ -9651,7 +9573,7 @@
         <v>611</v>
       </c>
       <c r="AC78" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AD78" s="8" t="s">
         <v>351</v>
@@ -9660,7 +9582,7 @@
         <v>5301</v>
       </c>
       <c r="CH78" s="21" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="CI78" s="21" t="s">
         <v>268</v>
@@ -9671,7 +9593,7 @@
         <v>193</v>
       </c>
       <c r="T79" s="21" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="U79" s="21" t="s">
         <v>154</v>
@@ -9680,7 +9602,7 @@
         <v>5302</v>
       </c>
       <c r="CH79" s="21" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="CI79" s="21" t="s">
         <v>268</v>
@@ -9709,7 +9631,7 @@
         <v>5303</v>
       </c>
       <c r="CH80" s="21" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="CI80" s="21" t="s">
         <v>268</v>
@@ -9730,7 +9652,7 @@
         <v>5304</v>
       </c>
       <c r="CH81" s="21" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="CI81" s="21" t="s">
         <v>268</v>
@@ -9746,7 +9668,7 @@
         <v>5305</v>
       </c>
       <c r="CH82" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="CI82" s="10" t="s">
         <v>268</v>
@@ -9767,7 +9689,7 @@
         <v>5306</v>
       </c>
       <c r="CH83" s="10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="CI83" s="10" t="s">
         <v>268</v>
@@ -9788,10 +9710,10 @@
         <v>5307</v>
       </c>
       <c r="CH84" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="CI84" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="85" spans="8:87" x14ac:dyDescent="0.3">
@@ -9803,7 +9725,7 @@
         <v>300</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="U86" s="1" t="s">
         <v>154</v>
@@ -9824,7 +9746,7 @@
         <v>301</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U87" s="1" t="s">
         <v>154</v>
@@ -9845,7 +9767,7 @@
         <v>302</v>
       </c>
       <c r="T88" s="21" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="U88" s="21" t="s">
         <v>182</v>
@@ -9857,7 +9779,7 @@
         <v>303</v>
       </c>
       <c r="T89" s="21" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U89" s="21" t="s">
         <v>182</v>
@@ -9869,7 +9791,7 @@
         <v>304</v>
       </c>
       <c r="T90" s="21" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="U90" s="21" t="s">
         <v>182</v>
@@ -9881,7 +9803,7 @@
         <v>305</v>
       </c>
       <c r="T91" s="21" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="U91" s="21" t="s">
         <v>182</v>
@@ -9892,10 +9814,10 @@
         <v>306</v>
       </c>
       <c r="T92" s="21" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="U92" s="21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="93" spans="8:87" x14ac:dyDescent="0.3">
@@ -9903,7 +9825,7 @@
         <v>307</v>
       </c>
       <c r="T93" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="U93" s="9" t="s">
         <v>182</v>
@@ -9914,10 +9836,10 @@
         <v>308</v>
       </c>
       <c r="T94" s="21" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="U94" s="21" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="95" spans="8:87" x14ac:dyDescent="0.3">
@@ -9925,10 +9847,10 @@
         <v>309</v>
       </c>
       <c r="T95" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="U95" s="21" t="s">
         <v>557</v>
-      </c>
-      <c r="U95" s="21" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="96" spans="8:87" x14ac:dyDescent="0.3">
@@ -9936,10 +9858,10 @@
         <v>310</v>
       </c>
       <c r="T96" s="21" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="U96" s="21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="97" spans="8:21" x14ac:dyDescent="0.3">
@@ -9947,7 +9869,7 @@
         <v>311</v>
       </c>
       <c r="T97" s="21" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="U97" s="21" t="s">
         <v>154</v>
@@ -9958,7 +9880,7 @@
         <v>312</v>
       </c>
       <c r="T98" s="21" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U98" s="21" t="s">
         <v>154</v>
@@ -9970,7 +9892,7 @@
         <v>313</v>
       </c>
       <c r="T99" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="U99" s="9" t="s">
         <v>182</v>
@@ -9982,10 +9904,10 @@
         <v>314</v>
       </c>
       <c r="T100" s="21" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U100" s="21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="101" spans="8:21" x14ac:dyDescent="0.3">
@@ -9994,10 +9916,10 @@
         <v>315</v>
       </c>
       <c r="T101" s="21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="U101" s="21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="102" spans="8:21" x14ac:dyDescent="0.3">
@@ -10006,10 +9928,10 @@
         <v>316</v>
       </c>
       <c r="T102" s="21" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U102" s="21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="103" spans="8:21" x14ac:dyDescent="0.3">
@@ -10018,10 +9940,10 @@
         <v>317</v>
       </c>
       <c r="T103" s="21" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="U103" s="21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="104" spans="8:21" x14ac:dyDescent="0.3">
@@ -10029,10 +9951,10 @@
         <v>318</v>
       </c>
       <c r="T104" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="U104" s="21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="105" spans="8:21" x14ac:dyDescent="0.3">
@@ -10040,10 +9962,10 @@
         <v>319</v>
       </c>
       <c r="T105" s="21" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="U105" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="106" spans="8:21" x14ac:dyDescent="0.3">
@@ -10051,10 +9973,10 @@
         <v>320</v>
       </c>
       <c r="T106" s="21" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="U106" s="21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="107" spans="8:21" x14ac:dyDescent="0.3">
@@ -10062,10 +9984,10 @@
         <v>321</v>
       </c>
       <c r="T107" s="21" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="U107" s="21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="108" spans="8:21" x14ac:dyDescent="0.3">
@@ -10073,10 +9995,10 @@
         <v>322</v>
       </c>
       <c r="T108" s="21" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="U108" s="21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="109" spans="8:21" x14ac:dyDescent="0.3">
@@ -10085,10 +10007,10 @@
         <v>323</v>
       </c>
       <c r="T109" s="21" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="U109" s="21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="110" spans="8:21" x14ac:dyDescent="0.3">
@@ -10098,10 +10020,10 @@
         <v>324</v>
       </c>
       <c r="T110" s="21" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="U110" s="21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="111" spans="8:21" x14ac:dyDescent="0.3">
@@ -10110,10 +10032,10 @@
         <v>325</v>
       </c>
       <c r="T111" s="21" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="U111" s="21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="112" spans="8:21" x14ac:dyDescent="0.3">
@@ -10122,10 +10044,10 @@
         <v>326</v>
       </c>
       <c r="T112" s="21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="U112" s="21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="113" spans="18:21" x14ac:dyDescent="0.3">
@@ -10134,7 +10056,7 @@
         <v>327</v>
       </c>
       <c r="T113" s="21" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="U113" s="21" t="s">
         <v>154</v>
@@ -10146,7 +10068,7 @@
         <v>328</v>
       </c>
       <c r="T114" s="21" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="U114" s="21" t="s">
         <v>154</v>
@@ -10158,10 +10080,10 @@
         <v>329</v>
       </c>
       <c r="T115" s="21" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="U115" s="21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="116" spans="18:21" x14ac:dyDescent="0.3">
@@ -10170,10 +10092,10 @@
         <v>330</v>
       </c>
       <c r="T116" s="21" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="U116" s="21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="117" spans="18:21" x14ac:dyDescent="0.3">
@@ -10182,10 +10104,10 @@
         <v>331</v>
       </c>
       <c r="T117" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="U117" s="21" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="118" spans="18:21" x14ac:dyDescent="0.3">
@@ -10193,10 +10115,10 @@
         <v>332</v>
       </c>
       <c r="T118" s="21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="U118" s="21" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="119" spans="18:21" x14ac:dyDescent="0.3">
@@ -10204,10 +10126,10 @@
         <v>333</v>
       </c>
       <c r="T119" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="U119" s="21" t="s">
         <v>626</v>
-      </c>
-      <c r="U119" s="21" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="120" spans="18:21" x14ac:dyDescent="0.3">
@@ -10215,10 +10137,10 @@
         <v>334</v>
       </c>
       <c r="T120" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="U120" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="121" spans="18:21" x14ac:dyDescent="0.3">
@@ -10226,10 +10148,10 @@
         <v>335</v>
       </c>
       <c r="T121" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="U121" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="122" spans="18:21" x14ac:dyDescent="0.3">
@@ -10237,10 +10159,10 @@
         <v>336</v>
       </c>
       <c r="T122" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="U122" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="123" spans="18:21" x14ac:dyDescent="0.3">
@@ -10248,10 +10170,10 @@
         <v>337</v>
       </c>
       <c r="T123" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="U123" s="9" t="s">
         <v>672</v>
-      </c>
-      <c r="U123" s="9" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="124" spans="18:21" x14ac:dyDescent="0.3">
@@ -10259,10 +10181,10 @@
         <v>338</v>
       </c>
       <c r="T124" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="U124" s="26" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="125" spans="18:21" x14ac:dyDescent="0.3">
@@ -10270,10 +10192,10 @@
         <v>339</v>
       </c>
       <c r="T125" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="U125" s="1" t="s">
         <v>666</v>
-      </c>
-      <c r="U125" s="1" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="126" spans="18:21" x14ac:dyDescent="0.3">
@@ -10281,10 +10203,10 @@
         <v>340</v>
       </c>
       <c r="T126" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="U126" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="132" spans="19:21" x14ac:dyDescent="0.3">
@@ -10292,7 +10214,7 @@
         <v>500</v>
       </c>
       <c r="T132" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="U132" s="21" t="s">
         <v>154</v>
@@ -10301,21 +10223,49 @@
     <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="BF1:BH1"/>
-    <mergeCell ref="BF2:BH2"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AN2:AP2"/>
-    <mergeCell ref="AW1:AY1"/>
-    <mergeCell ref="AW2:AY2"/>
-    <mergeCell ref="AT1:AV1"/>
-    <mergeCell ref="AT2:AV2"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="BC1:BE1"/>
-    <mergeCell ref="BC2:BE2"/>
-    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="DE1:DG1"/>
+    <mergeCell ref="DE2:DG2"/>
+    <mergeCell ref="CM1:CO1"/>
+    <mergeCell ref="CM2:CO2"/>
+    <mergeCell ref="CJ1:CL1"/>
+    <mergeCell ref="CJ2:CL2"/>
+    <mergeCell ref="CY1:DA1"/>
+    <mergeCell ref="CY2:DA2"/>
+    <mergeCell ref="CS1:CU1"/>
+    <mergeCell ref="CS2:CU2"/>
+    <mergeCell ref="CV1:CX1"/>
+    <mergeCell ref="CV2:CX2"/>
+    <mergeCell ref="DB1:DD1"/>
+    <mergeCell ref="DB2:DD2"/>
+    <mergeCell ref="CP1:CR1"/>
+    <mergeCell ref="CP2:CR2"/>
+    <mergeCell ref="BI2:BK2"/>
+    <mergeCell ref="BO1:BQ1"/>
+    <mergeCell ref="BO2:BQ2"/>
+    <mergeCell ref="BL1:BN1"/>
+    <mergeCell ref="BL2:BN2"/>
+    <mergeCell ref="BR1:BT1"/>
+    <mergeCell ref="BR2:BT2"/>
+    <mergeCell ref="CG1:CI1"/>
+    <mergeCell ref="CG2:CI2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="BU1:BW1"/>
+    <mergeCell ref="BU2:BW2"/>
+    <mergeCell ref="CD2:CF2"/>
+    <mergeCell ref="CD1:CF1"/>
+    <mergeCell ref="CA1:CC1"/>
+    <mergeCell ref="CA2:CC2"/>
+    <mergeCell ref="BX1:BZ1"/>
+    <mergeCell ref="BX2:BZ2"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="BI1:BK1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D1:F1"/>
@@ -10332,49 +10282,21 @@
     <mergeCell ref="S2:U2"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="BR1:BT1"/>
-    <mergeCell ref="BR2:BT2"/>
-    <mergeCell ref="CG1:CI1"/>
-    <mergeCell ref="CG2:CI2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="BU1:BW1"/>
-    <mergeCell ref="BU2:BW2"/>
-    <mergeCell ref="CD2:CF2"/>
-    <mergeCell ref="CD1:CF1"/>
-    <mergeCell ref="CA1:CC1"/>
-    <mergeCell ref="CA2:CC2"/>
-    <mergeCell ref="BX1:BZ1"/>
-    <mergeCell ref="BX2:BZ2"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="AZ2:BB2"/>
-    <mergeCell ref="BI1:BK1"/>
-    <mergeCell ref="BI2:BK2"/>
-    <mergeCell ref="BO1:BQ1"/>
-    <mergeCell ref="BO2:BQ2"/>
-    <mergeCell ref="BL1:BN1"/>
-    <mergeCell ref="BL2:BN2"/>
-    <mergeCell ref="DE1:DG1"/>
-    <mergeCell ref="DE2:DG2"/>
-    <mergeCell ref="CM1:CO1"/>
-    <mergeCell ref="CM2:CO2"/>
-    <mergeCell ref="CJ1:CL1"/>
-    <mergeCell ref="CJ2:CL2"/>
-    <mergeCell ref="CY1:DA1"/>
-    <mergeCell ref="CY2:DA2"/>
-    <mergeCell ref="CS1:CU1"/>
-    <mergeCell ref="CS2:CU2"/>
-    <mergeCell ref="CV1:CX1"/>
-    <mergeCell ref="CV2:CX2"/>
-    <mergeCell ref="DB1:DD1"/>
-    <mergeCell ref="DB2:DD2"/>
-    <mergeCell ref="CP1:CR1"/>
-    <mergeCell ref="CP2:CR2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="BF1:BH1"/>
+    <mergeCell ref="BF2:BH2"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AW1:AY1"/>
+    <mergeCell ref="AW2:AY2"/>
+    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="BC1:BE1"/>
+    <mergeCell ref="BC2:BE2"/>
+    <mergeCell ref="AZ1:BB1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D17:D19">
@@ -10510,12 +10432,12 @@
       <c r="B1" s="33"/>
       <c r="C1" s="34"/>
       <c r="D1" s="32" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E1" s="33"/>
       <c r="F1" s="34"/>
       <c r="G1" s="32" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1" s="33"/>
       <c r="I1" s="34"/>
@@ -10532,12 +10454,12 @@
       <c r="B2" s="33"/>
       <c r="C2" s="34"/>
       <c r="D2" s="32" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="34"/>
       <c r="G2" s="32" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H2" s="33"/>
       <c r="I2" s="34"/>
@@ -10596,13 +10518,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -10616,13 +10538,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -10636,13 +10558,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J6" s="1">
         <v>2</v>
@@ -10662,7 +10584,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -10676,7 +10598,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -10690,7 +10612,7 @@
         <v>11</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -10706,7 +10628,7 @@
         <v>999</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
